--- a/gantt-kort ProjektOrg.xlsx
+++ b/gantt-kort ProjektOrg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Users\Desk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Projekt-Organisering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEACE5BD-A2BB-44EA-AAA4-1DF4D702C1A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DCA809-54E3-42F1-B4C5-038E73B979FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Projektplanlægger</t>
   </si>
@@ -239,12 +239,15 @@
   <si>
     <t>Gør enkelt aktivitet dynamisk</t>
   </si>
+  <si>
+    <t>1 tidsrum = 1 time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -340,6 +343,15 @@
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="7"/>
       <name val="Corbel"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -562,7 +574,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +629,42 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,41 +713,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -723,7 +738,27 @@
     <cellStyle name="Titel" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Værdi for tidsrum" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -835,35 +870,6 @@
         <bottom style="thin">
           <color theme="0"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -1113,23 +1119,24 @@
   <dimension ref="B1:BO32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="Q5" sqref="Q5:AI5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="2.75" style="1"/>
-    <col min="11" max="15" width="3.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="1"/>
+    <col min="8" max="10" width="2.77734375" style="1"/>
+    <col min="11" max="15" width="3.21875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" style="1"/>
     <col min="17" max="20" width="4" style="1" customWidth="1"/>
-    <col min="21" max="27" width="2.75" style="1"/>
+    <col min="21" max="27" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1137,16 +1144,18 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="G1" s="46" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1154,66 +1163,66 @@
         <v>1</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="28"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="40"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="30"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="45"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AJ2" s="19"/>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="19"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-    </row>
-    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+    </row>
+    <row r="3" spans="2:67" s="8" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1239,13 +1248,13 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="34"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1427,625 +1436,625 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+    <row r="5" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+      <c r="C5" s="24">
+        <v>0</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>0</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="43">
-        <v>0</v>
-      </c>
-      <c r="D6" s="43">
-        <v>0</v>
-      </c>
-      <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="43">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="C6" s="27">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="43">
-        <v>0</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0</v>
-      </c>
-      <c r="E7" s="43">
-        <v>0</v>
-      </c>
-      <c r="F7" s="43">
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="C7" s="27">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="43">
-        <v>0</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0</v>
-      </c>
-      <c r="E8" s="43">
-        <v>0</v>
-      </c>
-      <c r="F8" s="43">
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="C8" s="27">
+        <v>0</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="43">
-        <v>0</v>
-      </c>
-      <c r="D9" s="43">
-        <v>0</v>
-      </c>
-      <c r="E9" s="43">
-        <v>0</v>
-      </c>
-      <c r="F9" s="43">
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="C9" s="27">
+        <v>0</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="43">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43">
-        <v>0</v>
-      </c>
-      <c r="E10" s="43">
-        <v>0</v>
-      </c>
-      <c r="F10" s="43">
-        <v>0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+      <c r="C10" s="27">
+        <v>0</v>
+      </c>
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="43">
-        <v>0</v>
-      </c>
-      <c r="D11" s="43">
-        <v>0</v>
-      </c>
-      <c r="E11" s="43">
-        <v>0</v>
-      </c>
-      <c r="F11" s="43">
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+      <c r="C11" s="27">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="43">
-        <v>0</v>
-      </c>
-      <c r="D12" s="43">
-        <v>0</v>
-      </c>
-      <c r="E12" s="43">
-        <v>0</v>
-      </c>
-      <c r="F12" s="43">
-        <v>0</v>
-      </c>
-      <c r="G12" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="43">
-        <v>0</v>
-      </c>
-      <c r="D13" s="43">
-        <v>0</v>
-      </c>
-      <c r="E13" s="43">
-        <v>0</v>
-      </c>
-      <c r="F13" s="43">
-        <v>0</v>
-      </c>
-      <c r="G13" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42" t="s">
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="43">
-        <v>0</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0</v>
-      </c>
-      <c r="E14" s="43">
-        <v>0</v>
-      </c>
-      <c r="F14" s="43">
-        <v>0</v>
-      </c>
-      <c r="G14" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="C14" s="27">
+        <v>0</v>
+      </c>
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="45">
-        <v>0</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0</v>
-      </c>
-      <c r="E15" s="43">
-        <v>0</v>
-      </c>
-      <c r="F15" s="43">
-        <v>0</v>
-      </c>
-      <c r="G15" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42" t="s">
+      <c r="C15" s="29">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27">
+        <v>0</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="F15" s="27">
+        <v>0</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="43">
-        <v>0</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0</v>
-      </c>
-      <c r="E16" s="43">
-        <v>0</v>
-      </c>
-      <c r="F16" s="43">
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="C16" s="27">
+        <v>0</v>
+      </c>
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
+        <v>0</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="43">
-        <v>0</v>
-      </c>
-      <c r="D17" s="43">
-        <v>0</v>
-      </c>
-      <c r="E17" s="43">
-        <v>0</v>
-      </c>
-      <c r="F17" s="43">
-        <v>0</v>
-      </c>
-      <c r="G17" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
+      <c r="C17" s="27">
+        <v>0</v>
+      </c>
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
+        <v>0</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="43">
-        <v>0</v>
-      </c>
-      <c r="D18" s="43">
-        <v>0</v>
-      </c>
-      <c r="E18" s="43">
-        <v>0</v>
-      </c>
-      <c r="F18" s="43">
-        <v>0</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="C18" s="27">
+        <v>0</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
+        <v>0</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="43">
-        <v>0</v>
-      </c>
-      <c r="D19" s="43">
-        <v>0</v>
-      </c>
-      <c r="E19" s="43">
-        <v>0</v>
-      </c>
-      <c r="F19" s="43">
-        <v>0</v>
-      </c>
-      <c r="G19" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
+      <c r="C19" s="27">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
+        <v>0</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="43">
-        <v>0</v>
-      </c>
-      <c r="D20" s="43">
-        <v>0</v>
-      </c>
-      <c r="E20" s="43">
-        <v>0</v>
-      </c>
-      <c r="F20" s="43">
-        <v>0</v>
-      </c>
-      <c r="G20" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="C20" s="27">
+        <v>0</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <v>0</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="43">
-        <v>0</v>
-      </c>
-      <c r="D21" s="43">
-        <v>0</v>
-      </c>
-      <c r="E21" s="43">
-        <v>0</v>
-      </c>
-      <c r="F21" s="43">
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+      <c r="C21" s="27">
+        <v>0</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <v>0</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="43">
-        <v>0</v>
-      </c>
-      <c r="D22" s="43">
-        <v>0</v>
-      </c>
-      <c r="E22" s="43">
-        <v>0</v>
-      </c>
-      <c r="F22" s="43">
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
+      <c r="C22" s="27">
+        <v>0</v>
+      </c>
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="43">
-        <v>0</v>
-      </c>
-      <c r="D23" s="43">
-        <v>0</v>
-      </c>
-      <c r="E23" s="43">
-        <v>0</v>
-      </c>
-      <c r="F23" s="43">
-        <v>0</v>
-      </c>
-      <c r="G23" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+      <c r="C23" s="27">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
+        <v>0</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="43">
-        <v>0</v>
-      </c>
-      <c r="D24" s="43">
-        <v>0</v>
-      </c>
-      <c r="E24" s="43">
-        <v>0</v>
-      </c>
-      <c r="F24" s="43">
-        <v>0</v>
-      </c>
-      <c r="G24" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="43">
-        <v>0</v>
-      </c>
-      <c r="D25" s="43">
-        <v>0</v>
-      </c>
-      <c r="E25" s="43">
-        <v>0</v>
-      </c>
-      <c r="F25" s="43">
-        <v>0</v>
-      </c>
-      <c r="G25" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
+      <c r="C25" s="27">
+        <v>0</v>
+      </c>
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="43">
-        <v>0</v>
-      </c>
-      <c r="D26" s="43">
-        <v>0</v>
-      </c>
-      <c r="E26" s="43">
-        <v>0</v>
-      </c>
-      <c r="F26" s="43">
-        <v>0</v>
-      </c>
-      <c r="G26" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
+        <v>0</v>
+      </c>
+      <c r="G26" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="43">
-        <v>0</v>
-      </c>
-      <c r="D27" s="43">
-        <v>0</v>
-      </c>
-      <c r="E27" s="43">
-        <v>0</v>
-      </c>
-      <c r="F27" s="43">
-        <v>0</v>
-      </c>
-      <c r="G27" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="42" t="s">
+      <c r="C27" s="27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="43">
-        <v>0</v>
-      </c>
-      <c r="D28" s="43">
-        <v>0</v>
-      </c>
-      <c r="E28" s="43">
-        <v>0</v>
-      </c>
-      <c r="F28" s="43">
-        <v>0</v>
-      </c>
-      <c r="G28" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="42" t="s">
+      <c r="C28" s="27">
+        <v>0</v>
+      </c>
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="43">
-        <v>0</v>
-      </c>
-      <c r="D29" s="43">
-        <v>0</v>
-      </c>
-      <c r="E29" s="43">
-        <v>0</v>
-      </c>
-      <c r="F29" s="43">
-        <v>0</v>
-      </c>
-      <c r="G29" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="42" t="s">
+      <c r="C29" s="27">
+        <v>0</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="43">
-        <v>0</v>
-      </c>
-      <c r="D30" s="43">
-        <v>0</v>
-      </c>
-      <c r="E30" s="43">
-        <v>0</v>
-      </c>
-      <c r="F30" s="43">
-        <v>0</v>
-      </c>
-      <c r="G30" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="42" t="s">
+      <c r="C30" s="27">
+        <v>0</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="43">
-        <v>0</v>
-      </c>
-      <c r="D31" s="43">
-        <v>0</v>
-      </c>
-      <c r="E31" s="43">
-        <v>0</v>
-      </c>
-      <c r="F31" s="43">
-        <v>0</v>
-      </c>
-      <c r="G31" s="44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:67" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="34" t="s">
+      <c r="C31" s="27">
+        <v>0</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:67" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="35">
-        <v>0</v>
-      </c>
-      <c r="D32" s="35">
-        <v>0</v>
-      </c>
-      <c r="E32" s="35">
-        <v>0</v>
-      </c>
-      <c r="F32" s="35">
-        <v>0</v>
-      </c>
-      <c r="G32" s="36">
-        <v>0</v>
-      </c>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="38"/>
-      <c r="AF32" s="38"/>
-      <c r="AG32" s="38"/>
-      <c r="AH32" s="38"/>
-      <c r="AI32" s="38"/>
-      <c r="AJ32" s="38"/>
-      <c r="AK32" s="38"/>
-      <c r="AL32" s="38"/>
-      <c r="AM32" s="38"/>
-      <c r="AN32" s="38"/>
-      <c r="AO32" s="38"/>
-      <c r="AP32" s="38"/>
-      <c r="AQ32" s="38"/>
-      <c r="AR32" s="38"/>
-      <c r="AS32" s="38"/>
-      <c r="AT32" s="38"/>
-      <c r="AU32" s="38"/>
-      <c r="AV32" s="38"/>
-      <c r="AW32" s="38"/>
-      <c r="AX32" s="38"/>
-      <c r="AY32" s="38"/>
-      <c r="AZ32" s="38"/>
-      <c r="BA32" s="38"/>
-      <c r="BB32" s="38"/>
-      <c r="BC32" s="38"/>
-      <c r="BD32" s="38"/>
-      <c r="BE32" s="38"/>
-      <c r="BF32" s="38"/>
-      <c r="BG32" s="38"/>
-      <c r="BH32" s="38"/>
-      <c r="BI32" s="38"/>
-      <c r="BJ32" s="38"/>
-      <c r="BK32" s="38"/>
-      <c r="BL32" s="38"/>
-      <c r="BM32" s="38"/>
-      <c r="BN32" s="38"/>
-      <c r="BO32" s="38"/>
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
+      <c r="AG32" s="22"/>
+      <c r="AH32" s="22"/>
+      <c r="AI32" s="22"/>
+      <c r="AJ32" s="22"/>
+      <c r="AK32" s="22"/>
+      <c r="AL32" s="22"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="22"/>
+      <c r="AP32" s="22"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22"/>
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="22"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22"/>
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="22"/>
+      <c r="BM32" s="22"/>
+      <c r="BN32" s="22"/>
+      <c r="BO32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2063,33 +2072,33 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO32">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>ProcentdelFuldført</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>ProcentdelFuldførtUdOver</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Faktisk</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>FaktiskUdOver</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="2" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="1" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>H$4=valgt_tidsrum</formula>
     </cfRule>
   </conditionalFormatting>
